--- a/media/availability/medications.xlsx
+++ b/media/availability/medications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0026013-F9A5-4D90-91B0-541481D95DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD217E7-6960-41F6-8DD3-ED1D90E3E422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14595" xr2:uid="{B539C411-639D-4F47-AAF9-37B9F932913C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Geneesmiddel</t>
   </si>
@@ -57,6 +57,57 @@
   </si>
   <si>
     <t>Omeprazol 40mg</t>
+  </si>
+  <si>
+    <t>Pantoprazol</t>
+  </si>
+  <si>
+    <t>Rosuvastatine</t>
+  </si>
+  <si>
+    <t>Simvastatine</t>
+  </si>
+  <si>
+    <t>Metoprolol</t>
+  </si>
+  <si>
+    <t>Atenolol</t>
+  </si>
+  <si>
+    <t>Metformine</t>
+  </si>
+  <si>
+    <t>Gliclazide</t>
+  </si>
+  <si>
+    <t>Glibenclamide</t>
+  </si>
+  <si>
+    <t>Tramadol</t>
+  </si>
+  <si>
+    <t>Oxycodon</t>
+  </si>
+  <si>
+    <t>Morfine</t>
+  </si>
+  <si>
+    <t>Methadon</t>
+  </si>
+  <si>
+    <t>Amitryptiline</t>
+  </si>
+  <si>
+    <t>Triamcinolon</t>
+  </si>
+  <si>
+    <t>Ozempic</t>
+  </si>
+  <si>
+    <t>Jardiance</t>
+  </si>
+  <si>
+    <t>Forxiga</t>
   </si>
 </sst>
 </file>
@@ -428,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45645A20-865E-4B56-93D9-DBBD2D83F6A2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -458,6 +509,9 @@
       <c r="B2">
         <v>123456</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -466,6 +520,9 @@
       <c r="B3">
         <v>654321</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -474,6 +531,9 @@
       <c r="B4">
         <v>78901</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -481,6 +541,196 @@
       </c>
       <c r="B5">
         <v>9876</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>11111</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>123457</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>333333</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>22333</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>12886</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>22222</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>98393</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>222220</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12098</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>27464</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>197353</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>113334</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>11222</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>22557</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>22556</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>22446</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>22557</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
